--- a/document/GitとGitHubの設定方法について.xlsx
+++ b/document/GitとGitHubの設定方法について.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsen\Desktop\Gitのセッティング\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\gitSource\YkRepository\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B859FF-48C0-4027-93F5-0EC2B1119807}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A3C783-1392-4F94-A0CF-029B181037CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A0BB552C-20E4-4B73-BE87-68F4BEB649F2}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="トラブルシューティング" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -720,13 +721,7 @@
       <t>サクセイ</t>
     </rPh>
     <rPh sb="23" eb="25">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
+      <t>サギョウキカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
